--- a/BalanceSheet/LULU_bal.xlsx
+++ b/BalanceSheet/LULU_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>137606000.0</v>
+        <v>647000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-95960000.0</v>
+        <v>771000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-15384000.0</v>
+        <v>673000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-122810000.0</v>
+        <v>626000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>107533000.0</v>
+        <v>519000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>627102000.0</v>
@@ -1678,19 +1678,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>9067000.0</v>
+        <v>172000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>37629000.0</v>
+        <v>161000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>33745000.0</v>
+        <v>123000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2222000.0</v>
+        <v>79000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-35895000.0</v>
+        <v>80000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>116281000.0</v>
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>34908000.0</v>
+        <v>52000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>16000000.0</v>
@@ -2876,7 +2876,7 @@
         <v>10000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>24129000.0</v>
+        <v>12000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>14190000.0</v>
